--- a/Classification_Prep.xlsx
+++ b/Classification_Prep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmsqu\Desktop\Bird_Shazam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmsqu\Desktop\Bird-Classifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02517F26-3777-4B6B-8796-D929FC92676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB9F0B4-9BA1-4B7D-AD59-62A8078EBC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="6090" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0379CEB8-129F-4AB5-BE74-9890DA5F74FA}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{0379CEB8-129F-4AB5-BE74-9890DA5F74FA}"/>
   </bookViews>
   <sheets>
     <sheet name="For filling in records" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="101">
   <si>
     <t>Blackbirds</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>[Species]</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -881,21 +884,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A22B2F5-9B18-4B04-ABA3-7C12A24FE577}">
-  <dimension ref="E6:S51"/>
+  <dimension ref="E6:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="6" max="6" width="28.921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.69140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.23046875" customWidth="1"/>
+    <col min="8" max="8" width="50.765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.765625" customWidth="1"/>
+    <col min="15" max="15" width="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.69140625" customWidth="1"/>
+    <col min="17" max="17" width="11.23046875" customWidth="1"/>
+    <col min="21" max="21" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="6:19" x14ac:dyDescent="0.4">
       <c r="F6" t="s">
         <v>96</v>
       </c>
@@ -905,19 +911,22 @@
       <c r="H6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="6:19" x14ac:dyDescent="0.4">
       <c r="F16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E17" t="s">
         <v>99</v>
       </c>
@@ -931,34 +940,46 @@
         <f>_xlfn.CONCAT($F$6,E17,"=",$G$6,F17,$G$6, $H$6, G17)</f>
         <v>ELSEIF [Species]="Albatrosses"THEN 1</v>
       </c>
-      <c r="J17" t="s">
+      <c r="I17" t="str">
+        <f>_xlfn.CONCAT($G$6,F17,$G$6,$I$6)</f>
+        <v>"Albatrosses",</v>
+      </c>
+      <c r="K17" t="s">
         <v>95</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>32</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1</v>
       </c>
-      <c r="N17" t="str">
-        <f>_xlfn.CONCAT($F$6,J17,"=",$G$6,K17,$G$6, $H$6, M17)</f>
+      <c r="O17" t="str">
+        <f t="shared" ref="O17:O28" si="0">_xlfn.CONCAT($F$6,K17,"=",$G$6,L17,$G$6, $H$6, N17)</f>
         <v>ELSEIF [Order]="ANSERIFORMES"THEN 1</v>
       </c>
-      <c r="P17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="P17" t="str">
+        <f>_xlfn.CONCAT($G$6,L17,$G$6,$I$6)</f>
+        <v>"ANSERIFORMES",</v>
+      </c>
+      <c r="R17" t="s">
+        <v>98</v>
+      </c>
+      <c r="S17" t="s">
         <v>70</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>1</v>
       </c>
-      <c r="S17" t="str">
-        <f>_xlfn.CONCAT($F$6,P17,"=",$G$6,Q17,$G$6, $H$6, R17)</f>
+      <c r="U17" t="str">
+        <f>_xlfn.CONCAT($F$6,R17,"=",$G$6,S17,$G$6, $H$6, T17)</f>
         <v>ELSEIF [Family]="Alaudidae"THEN 1</v>
       </c>
-    </row>
-    <row r="18" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V17" t="str">
+        <f>_xlfn.CONCAT($G$6,S17,$G$6,$I$6)</f>
+        <v>"Alaudidae",</v>
+      </c>
+    </row>
+    <row r="18" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E18" t="s">
         <v>99</v>
       </c>
@@ -969,37 +990,49 @@
         <v>2</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" ref="H18:H51" si="0">_xlfn.CONCAT($F$6,E18,"=",$G$6,F18,$G$6, $H$6, G18)</f>
+        <f t="shared" ref="H18:H51" si="1">_xlfn.CONCAT($F$6,E18,"=",$G$6,F18,$G$6, $H$6, G18)</f>
         <v>ELSEIF [Species]="Auks"THEN 2</v>
       </c>
-      <c r="J18" t="s">
+      <c r="I18" t="str">
+        <f t="shared" ref="I18:I51" si="2">_xlfn.CONCAT($G$6,F18,$G$6,$I$6)</f>
+        <v>"Auks",</v>
+      </c>
+      <c r="K18" t="s">
         <v>95</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>26</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2</v>
       </c>
-      <c r="N18" t="str">
-        <f>_xlfn.CONCAT($F$6,J18,"=",$G$6,K18,$G$6, $H$6, M18)</f>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
         <v>ELSEIF [Order]="CAPRIMULGIFORMES"THEN 2</v>
       </c>
-      <c r="P18" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="P18" t="str">
+        <f t="shared" ref="P18:P28" si="3">_xlfn.CONCAT($G$6,L18,$G$6,$I$6)</f>
+        <v>"CAPRIMULGIFORMES",</v>
+      </c>
+      <c r="R18" t="s">
+        <v>98</v>
+      </c>
+      <c r="S18" t="s">
         <v>71</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>2</v>
       </c>
-      <c r="S18" t="str">
-        <f t="shared" ref="S18:S51" si="1">_xlfn.CONCAT($F$6,P18,"=",$G$6,Q18,$G$6, $H$6, R18)</f>
+      <c r="U18" t="str">
+        <f t="shared" ref="U18:U51" si="4">_xlfn.CONCAT($F$6,R18,"=",$G$6,S18,$G$6, $H$6, T18)</f>
         <v>ELSEIF [Family]="Alcedinidae"THEN 2</v>
       </c>
-    </row>
-    <row r="19" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V18" t="str">
+        <f t="shared" ref="V18:V51" si="5">_xlfn.CONCAT($G$6,S18,$G$6,$I$6)</f>
+        <v>"Alcedinidae",</v>
+      </c>
+    </row>
+    <row r="19" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
         <v>99</v>
       </c>
@@ -1010,37 +1043,49 @@
         <v>3</v>
       </c>
       <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>ELSEIF [Species]="Cardinals, Allies"THEN 3</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>"Cardinals, Allies",</v>
+      </c>
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="str">
         <f t="shared" si="0"/>
-        <v>ELSEIF [Species]="Cardinals, Allies"THEN 3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19">
+        <v>ELSEIF [Order]="CHARADRIIFORMES"THEN 3</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="3"/>
+        <v>"CHARADRIIFORMES",</v>
+      </c>
+      <c r="R19" t="s">
+        <v>98</v>
+      </c>
+      <c r="S19" t="s">
+        <v>72</v>
+      </c>
+      <c r="T19">
         <v>3</v>
       </c>
-      <c r="N19" t="str">
-        <f>_xlfn.CONCAT($F$6,J19,"=",$G$6,K19,$G$6, $H$6, M19)</f>
-        <v>ELSEIF [Order]="CHARADRIIFORMES"THEN 3</v>
-      </c>
-      <c r="P19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19">
-        <v>3</v>
-      </c>
-      <c r="S19" t="str">
-        <f t="shared" si="1"/>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Alcidae"THEN 3</v>
       </c>
-    </row>
-    <row r="20" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V19" t="str">
+        <f t="shared" si="5"/>
+        <v>"Alcidae",</v>
+      </c>
+    </row>
+    <row r="20" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
         <v>99</v>
       </c>
@@ -1051,37 +1096,49 @@
         <v>4</v>
       </c>
       <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>ELSEIF [Species]="Cormorants and Shags"THEN 4</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>"Cormorants and Shags",</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20" t="str">
         <f t="shared" si="0"/>
-        <v>ELSEIF [Species]="Cormorants and Shags"THEN 4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20">
+        <v>ELSEIF [Order]="CORACIIFORMES"THEN 4</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="3"/>
+        <v>"CORACIIFORMES",</v>
+      </c>
+      <c r="R20" t="s">
+        <v>98</v>
+      </c>
+      <c r="S20" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="N20" t="str">
-        <f>_xlfn.CONCAT($F$6,J20,"=",$G$6,K20,$G$6, $H$6, M20)</f>
-        <v>ELSEIF [Order]="CORACIIFORMES"THEN 4</v>
-      </c>
-      <c r="P20" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20">
-        <v>4</v>
-      </c>
-      <c r="S20" t="str">
-        <f t="shared" si="1"/>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Anatidae"THEN 4</v>
       </c>
-    </row>
-    <row r="21" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V20" t="str">
+        <f t="shared" si="5"/>
+        <v>"Anatidae",</v>
+      </c>
+    </row>
+    <row r="21" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E21" t="s">
         <v>99</v>
       </c>
@@ -1092,37 +1149,49 @@
         <v>5</v>
       </c>
       <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>ELSEIF [Species]="Crows, Jays, Magpies"THEN 5</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>"Crows, Jays, Magpies",</v>
+      </c>
+      <c r="K21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21" t="str">
         <f t="shared" si="0"/>
-        <v>ELSEIF [Species]="Crows, Jays, Magpies"THEN 5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21">
+        <v>ELSEIF [Order]="CUCULIFORMES"THEN 5</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="3"/>
+        <v>"CUCULIFORMES",</v>
+      </c>
+      <c r="R21" t="s">
+        <v>98</v>
+      </c>
+      <c r="S21" t="s">
+        <v>73</v>
+      </c>
+      <c r="T21">
         <v>5</v>
       </c>
-      <c r="N21" t="str">
-        <f>_xlfn.CONCAT($F$6,J21,"=",$G$6,K21,$G$6, $H$6, M21)</f>
-        <v>ELSEIF [Order]="CUCULIFORMES"THEN 5</v>
-      </c>
-      <c r="P21" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>73</v>
-      </c>
-      <c r="R21">
-        <v>5</v>
-      </c>
-      <c r="S21" t="str">
-        <f t="shared" si="1"/>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Bombycillidae"THEN 5</v>
       </c>
-    </row>
-    <row r="22" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V21" t="str">
+        <f t="shared" si="5"/>
+        <v>"Bombycillidae",</v>
+      </c>
+    </row>
+    <row r="22" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
         <v>99</v>
       </c>
@@ -1133,37 +1202,49 @@
         <v>6</v>
       </c>
       <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>ELSEIF [Species]="Cuckoos"THEN 6</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>"Cuckoos",</v>
+      </c>
+      <c r="K22" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22" t="str">
         <f t="shared" si="0"/>
-        <v>ELSEIF [Species]="Cuckoos"THEN 6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22">
+        <v>ELSEIF [Order]="GAVIIFORMES"THEN 6</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="3"/>
+        <v>"GAVIIFORMES",</v>
+      </c>
+      <c r="R22" t="s">
+        <v>98</v>
+      </c>
+      <c r="S22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22">
         <v>6</v>
       </c>
-      <c r="N22" t="str">
-        <f>_xlfn.CONCAT($F$6,J22,"=",$G$6,K22,$G$6, $H$6, M22)</f>
-        <v>ELSEIF [Order]="GAVIIFORMES"THEN 6</v>
-      </c>
-      <c r="P22" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>27</v>
-      </c>
-      <c r="R22">
-        <v>6</v>
-      </c>
-      <c r="S22" t="str">
-        <f t="shared" si="1"/>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Caprimulgidae"THEN 6</v>
       </c>
-    </row>
-    <row r="23" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V22" t="str">
+        <f t="shared" si="5"/>
+        <v>"Caprimulgidae",</v>
+      </c>
+    </row>
+    <row r="23" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>99</v>
       </c>
@@ -1174,37 +1255,49 @@
         <v>7</v>
       </c>
       <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>ELSEIF [Species]="Ducks, Geese, Waterfowl"THEN 7</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>"Ducks, Geese, Waterfowl",</v>
+      </c>
+      <c r="K23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23" t="str">
         <f t="shared" si="0"/>
-        <v>ELSEIF [Species]="Ducks, Geese, Waterfowl"THEN 7</v>
-      </c>
-      <c r="J23" t="s">
-        <v>95</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23">
+        <v>ELSEIF [Order]="PASSERIFORMES"THEN 7</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="3"/>
+        <v>"PASSERIFORMES",</v>
+      </c>
+      <c r="R23" t="s">
+        <v>98</v>
+      </c>
+      <c r="S23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23">
         <v>7</v>
       </c>
-      <c r="N23" t="str">
-        <f>_xlfn.CONCAT($F$6,J23,"=",$G$6,K23,$G$6, $H$6, M23)</f>
-        <v>ELSEIF [Order]="PASSERIFORMES"THEN 7</v>
-      </c>
-      <c r="P23" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>9</v>
-      </c>
-      <c r="R23">
-        <v>7</v>
-      </c>
-      <c r="S23" t="str">
-        <f t="shared" si="1"/>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Cardinalidae"THEN 7</v>
       </c>
-    </row>
-    <row r="24" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V23" t="str">
+        <f t="shared" si="5"/>
+        <v>"Cardinalidae",</v>
+      </c>
+    </row>
+    <row r="24" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
         <v>99</v>
       </c>
@@ -1215,37 +1308,49 @@
         <v>8</v>
       </c>
       <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>ELSEIF [Species]="Finches, Euphonias, Allies"THEN 8</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>"Finches, Euphonias, Allies",</v>
+      </c>
+      <c r="K24" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24" t="str">
         <f t="shared" si="0"/>
-        <v>ELSEIF [Species]="Finches, Euphonias, Allies"THEN 8</v>
-      </c>
-      <c r="J24" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24">
+        <v>ELSEIF [Order]="PELECANIFORMES"THEN 8</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="3"/>
+        <v>"PELECANIFORMES",</v>
+      </c>
+      <c r="R24" t="s">
+        <v>98</v>
+      </c>
+      <c r="S24" t="s">
+        <v>74</v>
+      </c>
+      <c r="T24">
         <v>8</v>
       </c>
-      <c r="N24" t="str">
-        <f>_xlfn.CONCAT($F$6,J24,"=",$G$6,K24,$G$6, $H$6, M24)</f>
-        <v>ELSEIF [Order]="PELECANIFORMES"THEN 8</v>
-      </c>
-      <c r="P24" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>74</v>
-      </c>
-      <c r="R24">
-        <v>8</v>
-      </c>
-      <c r="S24" t="str">
-        <f t="shared" si="1"/>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Certhiidae"THEN 8</v>
       </c>
-    </row>
-    <row r="25" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V24" t="str">
+        <f t="shared" si="5"/>
+        <v>"Certhiidae",</v>
+      </c>
+    </row>
+    <row r="25" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
         <v>99</v>
       </c>
@@ -1256,37 +1361,49 @@
         <v>9</v>
       </c>
       <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>ELSEIF [Species]="Frigates"THEN 9</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>"Frigates",</v>
+      </c>
+      <c r="K25" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25">
+        <v>9</v>
+      </c>
+      <c r="O25" t="str">
         <f t="shared" si="0"/>
-        <v>ELSEIF [Species]="Frigates"THEN 9</v>
-      </c>
-      <c r="J25" t="s">
-        <v>95</v>
-      </c>
-      <c r="K25" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25">
+        <v>ELSEIF [Order]="PICIFORMES"THEN 9</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="3"/>
+        <v>"PICIFORMES",</v>
+      </c>
+      <c r="R25" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25">
         <v>9</v>
       </c>
-      <c r="N25" t="str">
-        <f>_xlfn.CONCAT($F$6,J25,"=",$G$6,K25,$G$6, $H$6, M25)</f>
-        <v>ELSEIF [Order]="PICIFORMES"THEN 9</v>
-      </c>
-      <c r="P25" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>6</v>
-      </c>
-      <c r="R25">
-        <v>9</v>
-      </c>
-      <c r="S25" t="str">
-        <f t="shared" si="1"/>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Corvidae"THEN 9</v>
       </c>
-    </row>
-    <row r="26" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V25" t="str">
+        <f t="shared" si="5"/>
+        <v>"Corvidae",</v>
+      </c>
+    </row>
+    <row r="26" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
         <v>99</v>
       </c>
@@ -1297,37 +1414,49 @@
         <v>10</v>
       </c>
       <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>ELSEIF [Species]="Grebes"THEN 10</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>"Grebes",</v>
+      </c>
+      <c r="K26" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26" t="str">
         <f t="shared" si="0"/>
-        <v>ELSEIF [Species]="Grebes"THEN 10</v>
-      </c>
-      <c r="J26" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26">
+        <v>ELSEIF [Order]="PODICIPEDIFORMES"THEN 10</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="3"/>
+        <v>"PODICIPEDIFORMES",</v>
+      </c>
+      <c r="R26" t="s">
+        <v>98</v>
+      </c>
+      <c r="S26" t="s">
+        <v>75</v>
+      </c>
+      <c r="T26">
         <v>10</v>
       </c>
-      <c r="N26" t="str">
-        <f>_xlfn.CONCAT($F$6,J26,"=",$G$6,K26,$G$6, $H$6, M26)</f>
-        <v>ELSEIF [Order]="PODICIPEDIFORMES"THEN 10</v>
-      </c>
-      <c r="P26" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>75</v>
-      </c>
-      <c r="R26">
-        <v>10</v>
-      </c>
-      <c r="S26" t="str">
-        <f t="shared" si="1"/>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Cuculidae"THEN 10</v>
       </c>
-    </row>
-    <row r="27" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V26" t="str">
+        <f t="shared" si="5"/>
+        <v>"Cuculidae",</v>
+      </c>
+    </row>
+    <row r="27" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
         <v>99</v>
       </c>
@@ -1338,37 +1467,49 @@
         <v>11</v>
       </c>
       <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>ELSEIF [Species]="Gulls, Terns, Skimmers"THEN 11</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>"Gulls, Terns, Skimmers",</v>
+      </c>
+      <c r="K27" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27">
+        <v>11</v>
+      </c>
+      <c r="O27" t="str">
         <f t="shared" si="0"/>
-        <v>ELSEIF [Species]="Gulls, Terns, Skimmers"THEN 11</v>
-      </c>
-      <c r="J27" t="s">
-        <v>95</v>
-      </c>
-      <c r="K27" t="s">
-        <v>67</v>
-      </c>
-      <c r="M27">
+        <v>ELSEIF [Order]="PROCELLARIIFORMES"THEN 11</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="3"/>
+        <v>"PROCELLARIIFORMES",</v>
+      </c>
+      <c r="R27" t="s">
+        <v>98</v>
+      </c>
+      <c r="S27" t="s">
+        <v>76</v>
+      </c>
+      <c r="T27">
         <v>11</v>
       </c>
-      <c r="N27" t="str">
-        <f>_xlfn.CONCAT($F$6,J27,"=",$G$6,K27,$G$6, $H$6, M27)</f>
-        <v>ELSEIF [Order]="PROCELLARIIFORMES"THEN 11</v>
-      </c>
-      <c r="P27" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>76</v>
-      </c>
-      <c r="R27">
-        <v>11</v>
-      </c>
-      <c r="S27" t="str">
-        <f t="shared" si="1"/>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Diomedeidae"THEN 11</v>
       </c>
-    </row>
-    <row r="28" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V27" t="str">
+        <f t="shared" si="5"/>
+        <v>"Diomedeidae",</v>
+      </c>
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
         <v>99</v>
       </c>
@@ -1379,37 +1520,49 @@
         <v>12</v>
       </c>
       <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>ELSEIF [Species]="Hummingbirds"THEN 12</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>"Hummingbirds",</v>
+      </c>
+      <c r="K28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28">
+        <v>12</v>
+      </c>
+      <c r="O28" t="str">
         <f t="shared" si="0"/>
-        <v>ELSEIF [Species]="Hummingbirds"THEN 12</v>
-      </c>
-      <c r="J28" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" t="s">
-        <v>68</v>
-      </c>
-      <c r="M28">
+        <v>ELSEIF [Order]="SULIFORMES"THEN 12</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="3"/>
+        <v>"SULIFORMES",</v>
+      </c>
+      <c r="R28" t="s">
+        <v>98</v>
+      </c>
+      <c r="S28" t="s">
+        <v>77</v>
+      </c>
+      <c r="T28">
         <v>12</v>
       </c>
-      <c r="N28" t="str">
-        <f>_xlfn.CONCAT($F$6,J28,"=",$G$6,K28,$G$6, $H$6, M28)</f>
-        <v>ELSEIF [Order]="SULIFORMES"THEN 12</v>
-      </c>
-      <c r="P28" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>77</v>
-      </c>
-      <c r="R28">
-        <v>12</v>
-      </c>
-      <c r="S28" t="str">
-        <f t="shared" si="1"/>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Fregatidae"THEN 12</v>
       </c>
-    </row>
-    <row r="29" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V28" t="str">
+        <f t="shared" si="5"/>
+        <v>"Fregatidae",</v>
+      </c>
+    </row>
+    <row r="29" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E29" t="s">
         <v>99</v>
       </c>
@@ -1420,24 +1573,32 @@
         <v>13</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Kingfishers"THEN 13</v>
       </c>
-      <c r="P29" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>"Kingfishers",</v>
+      </c>
+      <c r="R29" t="s">
+        <v>98</v>
+      </c>
+      <c r="S29" t="s">
         <v>30</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>13</v>
       </c>
-      <c r="S29" t="str">
-        <f t="shared" si="1"/>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Fringillidae"THEN 13</v>
       </c>
-    </row>
-    <row r="30" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V29" t="str">
+        <f t="shared" si="5"/>
+        <v>"Fringillidae",</v>
+      </c>
+    </row>
+    <row r="30" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E30" t="s">
         <v>99</v>
       </c>
@@ -1448,24 +1609,32 @@
         <v>14</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Larks"THEN 14</v>
       </c>
-      <c r="P30" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>"Larks",</v>
+      </c>
+      <c r="R30" t="s">
+        <v>98</v>
+      </c>
+      <c r="S30" t="s">
         <v>78</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>14</v>
       </c>
-      <c r="S30" t="str">
-        <f t="shared" si="1"/>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Gaviidae"THEN 14</v>
       </c>
-    </row>
-    <row r="31" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V30" t="str">
+        <f t="shared" si="5"/>
+        <v>"Gaviidae",</v>
+      </c>
+    </row>
+    <row r="31" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
         <v>99</v>
       </c>
@@ -1476,24 +1645,32 @@
         <v>15</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Loons"THEN 15</v>
       </c>
-      <c r="P31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>"Loons",</v>
+      </c>
+      <c r="R31" t="s">
+        <v>98</v>
+      </c>
+      <c r="S31" t="s">
         <v>79</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>15</v>
       </c>
-      <c r="S31" t="str">
-        <f t="shared" si="1"/>
+      <c r="U31" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Hirundinidae"THEN 15</v>
       </c>
-    </row>
-    <row r="32" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V31" t="str">
+        <f t="shared" si="5"/>
+        <v>"Hirundinidae",</v>
+      </c>
+    </row>
+    <row r="32" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E32" t="s">
         <v>99</v>
       </c>
@@ -1504,24 +1681,32 @@
         <v>16</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Mickingbirds and Thrashers"THEN 16</v>
       </c>
-      <c r="P32" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q32" t="s">
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>"Mickingbirds and Thrashers",</v>
+      </c>
+      <c r="R32" t="s">
+        <v>98</v>
+      </c>
+      <c r="S32" t="s">
         <v>3</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>16</v>
       </c>
-      <c r="S32" t="str">
-        <f t="shared" si="1"/>
+      <c r="U32" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Icteridae"THEN 16</v>
       </c>
-    </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V32" t="str">
+        <f t="shared" si="5"/>
+        <v>"Icteridae",</v>
+      </c>
+    </row>
+    <row r="33" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
         <v>99</v>
       </c>
@@ -1532,24 +1717,32 @@
         <v>17</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="New World Sparrows"THEN 17</v>
       </c>
-      <c r="P33" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>"New World Sparrows",</v>
+      </c>
+      <c r="R33" t="s">
+        <v>98</v>
+      </c>
+      <c r="S33" t="s">
         <v>80</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>17</v>
       </c>
-      <c r="S33" t="str">
-        <f t="shared" si="1"/>
+      <c r="U33" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Icteriidae"THEN 17</v>
       </c>
-    </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V33" t="str">
+        <f t="shared" si="5"/>
+        <v>"Icteriidae",</v>
+      </c>
+    </row>
+    <row r="34" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E34" t="s">
         <v>99</v>
       </c>
@@ -1560,24 +1753,32 @@
         <v>18</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="New World Warblers"THEN 18</v>
       </c>
-      <c r="P34" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v>"New World Warblers",</v>
+      </c>
+      <c r="R34" t="s">
+        <v>98</v>
+      </c>
+      <c r="S34" t="s">
         <v>81</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>18</v>
       </c>
-      <c r="S34" t="str">
-        <f t="shared" si="1"/>
+      <c r="U34" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Laniidae"THEN 18</v>
       </c>
-    </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V34" t="str">
+        <f t="shared" si="5"/>
+        <v>"Laniidae",</v>
+      </c>
+    </row>
+    <row r="35" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
         <v>99</v>
       </c>
@@ -1588,24 +1789,32 @@
         <v>19</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Nightjars and Allies"THEN 19</v>
       </c>
-      <c r="P35" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
+        <v>"Nightjars and Allies",</v>
+      </c>
+      <c r="R35" t="s">
+        <v>98</v>
+      </c>
+      <c r="S35" t="s">
         <v>13</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <v>19</v>
       </c>
-      <c r="S35" t="str">
-        <f t="shared" si="1"/>
+      <c r="U35" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Laridae"THEN 19</v>
       </c>
-    </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V35" t="str">
+        <f t="shared" si="5"/>
+        <v>"Laridae",</v>
+      </c>
+    </row>
+    <row r="36" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E36" t="s">
         <v>99</v>
       </c>
@@ -1616,24 +1825,32 @@
         <v>20</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Nuthatches"THEN 20</v>
       </c>
-      <c r="P36" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
+        <v>"Nuthatches",</v>
+      </c>
+      <c r="R36" t="s">
+        <v>98</v>
+      </c>
+      <c r="S36" t="s">
         <v>19</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <v>20</v>
       </c>
-      <c r="S36" t="str">
-        <f t="shared" si="1"/>
+      <c r="U36" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Mimidae"THEN 20</v>
       </c>
-    </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V36" t="str">
+        <f t="shared" si="5"/>
+        <v>"Mimidae",</v>
+      </c>
+    </row>
+    <row r="37" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
         <v>99</v>
       </c>
@@ -1644,24 +1861,32 @@
         <v>21</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Pelicans"THEN 21</v>
       </c>
-      <c r="P37" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v>"Pelicans",</v>
+      </c>
+      <c r="R37" t="s">
+        <v>98</v>
+      </c>
+      <c r="S37" t="s">
         <v>82</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <v>21</v>
       </c>
-      <c r="S37" t="str">
-        <f t="shared" si="1"/>
+      <c r="U37" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Motacillidae"THEN 21</v>
       </c>
-    </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V37" t="str">
+        <f t="shared" si="5"/>
+        <v>"Motacillidae",</v>
+      </c>
+    </row>
+    <row r="38" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E38" t="s">
         <v>99</v>
       </c>
@@ -1672,24 +1897,32 @@
         <v>22</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Shearwaters and Petrels"THEN 22</v>
       </c>
-      <c r="P38" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v>"Shearwaters and Petrels",</v>
+      </c>
+      <c r="R38" t="s">
+        <v>98</v>
+      </c>
+      <c r="S38" t="s">
         <v>24</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <v>22</v>
       </c>
-      <c r="S38" t="str">
-        <f t="shared" si="1"/>
+      <c r="U38" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Parulidae"THEN 22</v>
       </c>
-    </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V38" t="str">
+        <f t="shared" si="5"/>
+        <v>"Parulidae",</v>
+      </c>
+    </row>
+    <row r="39" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E39" t="s">
         <v>99</v>
       </c>
@@ -1700,24 +1933,32 @@
         <v>23</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Shrikes"THEN 23</v>
       </c>
-      <c r="P39" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="I39" t="str">
+        <f t="shared" si="2"/>
+        <v>"Shrikes",</v>
+      </c>
+      <c r="R39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S39" t="s">
         <v>16</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <v>23</v>
       </c>
-      <c r="S39" t="str">
-        <f t="shared" si="1"/>
+      <c r="U39" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Passerellidae"THEN 23</v>
       </c>
-    </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V39" t="str">
+        <f t="shared" si="5"/>
+        <v>"Passerellidae",</v>
+      </c>
+    </row>
+    <row r="40" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E40" t="s">
         <v>99</v>
       </c>
@@ -1728,24 +1969,32 @@
         <v>24</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Skuas and Jaegers"THEN 24</v>
       </c>
-      <c r="P40" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="I40" t="str">
+        <f t="shared" si="2"/>
+        <v>"Skuas and Jaegers",</v>
+      </c>
+      <c r="R40" t="s">
+        <v>98</v>
+      </c>
+      <c r="S40" t="s">
         <v>83</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <v>24</v>
       </c>
-      <c r="S40" t="str">
-        <f t="shared" si="1"/>
+      <c r="U40" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Pelecanidae"THEN 24</v>
       </c>
-    </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V40" t="str">
+        <f t="shared" si="5"/>
+        <v>"Pelecanidae",</v>
+      </c>
+    </row>
+    <row r="41" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E41" t="s">
         <v>99</v>
       </c>
@@ -1756,24 +2005,32 @@
         <v>25</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Starlings"THEN 25</v>
       </c>
-      <c r="P41" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q41" t="s">
+      <c r="I41" t="str">
+        <f t="shared" si="2"/>
+        <v>"Starlings",</v>
+      </c>
+      <c r="R41" t="s">
+        <v>98</v>
+      </c>
+      <c r="S41" t="s">
         <v>84</v>
       </c>
-      <c r="R41">
+      <c r="T41">
         <v>25</v>
       </c>
-      <c r="S41" t="str">
-        <f t="shared" si="1"/>
+      <c r="U41" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Phalacrocoracidae"THEN 25</v>
       </c>
-    </row>
-    <row r="42" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V41" t="str">
+        <f t="shared" si="5"/>
+        <v>"Phalacrocoracidae",</v>
+      </c>
+    </row>
+    <row r="42" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E42" t="s">
         <v>99</v>
       </c>
@@ -1784,24 +2041,32 @@
         <v>26</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Swallows"THEN 26</v>
       </c>
-      <c r="P42" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="I42" t="str">
+        <f t="shared" si="2"/>
+        <v>"Swallows",</v>
+      </c>
+      <c r="R42" t="s">
+        <v>98</v>
+      </c>
+      <c r="S42" t="s">
         <v>85</v>
       </c>
-      <c r="R42">
+      <c r="T42">
         <v>26</v>
       </c>
-      <c r="S42" t="str">
-        <f t="shared" si="1"/>
+      <c r="U42" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Picidae"THEN 26</v>
       </c>
-    </row>
-    <row r="43" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V42" t="str">
+        <f t="shared" si="5"/>
+        <v>"Picidae",</v>
+      </c>
+    </row>
+    <row r="43" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E43" t="s">
         <v>99</v>
       </c>
@@ -1812,24 +2077,32 @@
         <v>27</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Treecreepers"THEN 27</v>
       </c>
-      <c r="P43" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="I43" t="str">
+        <f t="shared" si="2"/>
+        <v>"Treecreepers",</v>
+      </c>
+      <c r="R43" t="s">
+        <v>98</v>
+      </c>
+      <c r="S43" t="s">
         <v>86</v>
       </c>
-      <c r="R43">
+      <c r="T43">
         <v>27</v>
       </c>
-      <c r="S43" t="str">
-        <f t="shared" si="1"/>
+      <c r="U43" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Podicipedidae"THEN 27</v>
       </c>
-    </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V43" t="str">
+        <f t="shared" si="5"/>
+        <v>"Podicipedidae",</v>
+      </c>
+    </row>
+    <row r="44" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
         <v>99</v>
       </c>
@@ -1840,24 +2113,32 @@
         <v>28</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Troupials and Allies"THEN 28</v>
       </c>
-      <c r="P44" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="I44" t="str">
+        <f t="shared" si="2"/>
+        <v>"Troupials and Allies",</v>
+      </c>
+      <c r="R44" t="s">
+        <v>98</v>
+      </c>
+      <c r="S44" t="s">
         <v>87</v>
       </c>
-      <c r="R44">
+      <c r="T44">
         <v>28</v>
       </c>
-      <c r="S44" t="str">
-        <f t="shared" si="1"/>
+      <c r="U44" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Procellariidae"THEN 28</v>
       </c>
-    </row>
-    <row r="45" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V44" t="str">
+        <f t="shared" si="5"/>
+        <v>"Procellariidae",</v>
+      </c>
+    </row>
+    <row r="45" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E45" t="s">
         <v>99</v>
       </c>
@@ -1868,24 +2149,32 @@
         <v>29</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Tyrant Flycatchers"THEN 29</v>
       </c>
-      <c r="P45" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="I45" t="str">
+        <f t="shared" si="2"/>
+        <v>"Tyrant Flycatchers",</v>
+      </c>
+      <c r="R45" t="s">
+        <v>98</v>
+      </c>
+      <c r="S45" t="s">
         <v>88</v>
       </c>
-      <c r="R45">
+      <c r="T45">
         <v>29</v>
       </c>
-      <c r="S45" t="str">
-        <f t="shared" si="1"/>
+      <c r="U45" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Sittidae"THEN 29</v>
       </c>
-    </row>
-    <row r="46" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V45" t="str">
+        <f t="shared" si="5"/>
+        <v>"Sittidae",</v>
+      </c>
+    </row>
+    <row r="46" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E46" t="s">
         <v>99</v>
       </c>
@@ -1896,24 +2185,32 @@
         <v>30</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Vireos, Shrike-Babblers, Erpornis"THEN 30</v>
       </c>
-      <c r="P46" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="I46" t="str">
+        <f t="shared" si="2"/>
+        <v>"Vireos, Shrike-Babblers, Erpornis",</v>
+      </c>
+      <c r="R46" t="s">
+        <v>98</v>
+      </c>
+      <c r="S46" t="s">
         <v>89</v>
       </c>
-      <c r="R46">
+      <c r="T46">
         <v>30</v>
       </c>
-      <c r="S46" t="str">
-        <f t="shared" si="1"/>
+      <c r="U46" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Stercorariidae"THEN 30</v>
       </c>
-    </row>
-    <row r="47" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V46" t="str">
+        <f t="shared" si="5"/>
+        <v>"Stercorariidae",</v>
+      </c>
+    </row>
+    <row r="47" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E47" t="s">
         <v>99</v>
       </c>
@@ -1924,24 +2221,32 @@
         <v>31</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Wagtails and Pipits"THEN 31</v>
       </c>
-      <c r="P47" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="I47" t="str">
+        <f t="shared" si="2"/>
+        <v>"Wagtails and Pipits",</v>
+      </c>
+      <c r="R47" t="s">
+        <v>98</v>
+      </c>
+      <c r="S47" t="s">
         <v>90</v>
       </c>
-      <c r="R47">
+      <c r="T47">
         <v>31</v>
       </c>
-      <c r="S47" t="str">
-        <f t="shared" si="1"/>
+      <c r="U47" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Sturnidae"THEN 31</v>
       </c>
-    </row>
-    <row r="48" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V47" t="str">
+        <f t="shared" si="5"/>
+        <v>"Sturnidae",</v>
+      </c>
+    </row>
+    <row r="48" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E48" t="s">
         <v>99</v>
       </c>
@@ -1952,24 +2257,32 @@
         <v>32</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Waxwings"THEN 32</v>
       </c>
-      <c r="P48" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="I48" t="str">
+        <f t="shared" si="2"/>
+        <v>"Waxwings",</v>
+      </c>
+      <c r="R48" t="s">
+        <v>98</v>
+      </c>
+      <c r="S48" t="s">
         <v>91</v>
       </c>
-      <c r="R48">
+      <c r="T48">
         <v>32</v>
       </c>
-      <c r="S48" t="str">
-        <f t="shared" si="1"/>
+      <c r="U48" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Trochilidae"THEN 32</v>
       </c>
-    </row>
-    <row r="49" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V48" t="str">
+        <f t="shared" si="5"/>
+        <v>"Trochilidae",</v>
+      </c>
+    </row>
+    <row r="49" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E49" t="s">
         <v>99</v>
       </c>
@@ -1980,24 +2293,32 @@
         <v>33</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Woodpeckers"THEN 33</v>
       </c>
-      <c r="P49" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="I49" t="str">
+        <f t="shared" si="2"/>
+        <v>"Woodpeckers",</v>
+      </c>
+      <c r="R49" t="s">
+        <v>98</v>
+      </c>
+      <c r="S49" t="s">
         <v>92</v>
       </c>
-      <c r="R49">
+      <c r="T49">
         <v>33</v>
       </c>
-      <c r="S49" t="str">
-        <f t="shared" si="1"/>
+      <c r="U49" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Troglodytidae"THEN 33</v>
       </c>
-    </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V49" t="str">
+        <f t="shared" si="5"/>
+        <v>"Troglodytidae",</v>
+      </c>
+    </row>
+    <row r="50" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E50" t="s">
         <v>99</v>
       </c>
@@ -2008,24 +2329,32 @@
         <v>34</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Wrens"THEN 34</v>
       </c>
-      <c r="P50" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q50" t="s">
+      <c r="I50" t="str">
+        <f t="shared" si="2"/>
+        <v>"Wrens",</v>
+      </c>
+      <c r="R50" t="s">
+        <v>98</v>
+      </c>
+      <c r="S50" t="s">
         <v>20</v>
       </c>
-      <c r="R50">
+      <c r="T50">
         <v>34</v>
       </c>
-      <c r="S50" t="str">
-        <f t="shared" si="1"/>
+      <c r="U50" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Tyrannidae"THEN 34</v>
       </c>
-    </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="V50" t="str">
+        <f t="shared" si="5"/>
+        <v>"Tyrannidae",</v>
+      </c>
+    </row>
+    <row r="51" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E51" t="s">
         <v>99</v>
       </c>
@@ -2036,21 +2365,29 @@
         <v>35</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELSEIF [Species]="Yellow-breasted Chat"THEN 35</v>
       </c>
-      <c r="P51" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q51" t="s">
+      <c r="I51" t="str">
+        <f t="shared" si="2"/>
+        <v>"Yellow-breasted Chat",</v>
+      </c>
+      <c r="R51" t="s">
+        <v>98</v>
+      </c>
+      <c r="S51" t="s">
         <v>93</v>
       </c>
-      <c r="R51">
+      <c r="T51">
         <v>35</v>
       </c>
-      <c r="S51" t="str">
-        <f t="shared" si="1"/>
+      <c r="U51" t="str">
+        <f t="shared" si="4"/>
         <v>ELSEIF [Family]="Vireonidae"THEN 35</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="5"/>
+        <v>"Vireonidae",</v>
       </c>
     </row>
   </sheetData>
